--- a/LSTM/stockRes.xlsx
+++ b/LSTM/stockRes.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13620"/>
+    <workbookView windowWidth="28695" windowHeight="13230" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>LSTM</t>
   </si>
   <si>
     <t>ARX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 150 200 250 </t>
   </si>
   <si>
     <t>100epoch, 1 to 1, 100testLen</t>
@@ -51,6 +55,9 @@
   <si>
     <t>100epoch, 9 to 1, 100 testLen</t>
   </si>
+  <si>
+    <t>1 to 10</t>
+  </si>
 </sst>
 </file>
 
@@ -60,24 +67,28 @@
     <numFmt numFmtId="176" formatCode="0.0000000000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -102,20 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -124,6 +121,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -133,6 +142,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -148,6 +165,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -156,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,32 +232,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,21 +246,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,25 +262,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,126 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -434,7 +457,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,32 +483,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,47 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -583,9 +547,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,262 +610,245 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -869,10 +857,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1116,49 +1104,68 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="50.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7" style="1"/>
+    <col min="2" max="2" width="12.3083333333333" style="2"/>
+    <col min="3" max="1025" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>0.0186629151940467</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>0.00621232206368555</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
+      <c r="F2"/>
+      <c r="G2" s="1">
+        <v>0.0354988810700719</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.0107412078261498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1168,9 +1175,16 @@
       <c r="D3" s="8">
         <v>0.00621232206368555</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
+      <c r="F3"/>
+      <c r="G3" s="1">
+        <v>0.00967915685558895</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0107412078261498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1180,36 +1194,57 @@
       <c r="D4" s="8">
         <v>0.00621232206368555</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="F4"/>
+      <c r="G4" s="1">
+        <v>0.0395751713050765</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0107412078261498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
         <f>AVERAGE(C2:C4)</f>
         <v>0.0154617252145622</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.00621232206368555</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="F5"/>
+      <c r="G5" s="1">
+        <v>0.0282510697435791</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0107412078261498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.0316489084165449</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>0.00874983069724291</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
+      <c r="F6"/>
+      <c r="G6" s="1">
+        <v>39.4199772572821</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.7360750235974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1219,9 +1254,16 @@
       <c r="D7" s="8">
         <v>0.00874983069724291</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
+      <c r="F7"/>
+      <c r="G7" s="1">
+        <v>83.1236340770281</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.7360750235974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1231,39 +1273,59 @@
       <c r="D8" s="8">
         <v>0.00874983069724291</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="F8"/>
+      <c r="G8" s="1">
+        <v>96.0598824773467</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9.7360750235974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
         <f>AVERAGE(C6:C8)</f>
         <v>0.0177447104004181</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.00874983069724291</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="F9"/>
+      <c r="G9" s="1">
+        <v>72.8678312705523</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9.7360750235974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.0110800254397622</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>0.00997298689218786</v>
       </c>
       <c r="F10" s="1">
         <v>0.0120408993711274</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
+      <c r="G10" s="1">
+        <v>0.270258180119804</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.00744985232203722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -1276,13 +1338,19 @@
       <c r="F11" s="1">
         <v>0.0107098022865568</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
+      <c r="G11" s="1">
+        <v>0.0586202346215753</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.00744985232203722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="3">
         <v>0.017474073512007</v>
       </c>
       <c r="D12" s="8">
@@ -1291,42 +1359,60 @@
       <c r="F12" s="1">
         <v>0.0121308392818547</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="G12" s="1">
+        <v>0.215861700006626</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.00744985232203722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
         <f>AVERAGE(C10:C12)</f>
         <v>0.0233275766730159</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0.00997298689218786</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="G13" s="1">
+        <v>0.181580038249335</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.00744985232203722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>0.00925818972091524</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>0.0106685809895448</v>
       </c>
       <c r="F14" s="1">
         <v>0.00697900769403937</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+      <c r="G14" s="1">
+        <v>0.0249996034656382</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0010497749197466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -1339,9 +1425,15 @@
       <c r="F15" s="1">
         <v>0.0607142573206228</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
+      <c r="G15" s="1">
+        <v>0.00331510492427177</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0010497749197466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>3</v>
       </c>
@@ -1354,42 +1446,60 @@
       <c r="F16" s="1">
         <v>0.0656468355300442</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="G16" s="1">
+        <v>0.00827571589751662</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0010497749197466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
         <f>AVERAGE(C14:C16)</f>
         <v>0.0369027982474695</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0.0106685809895448</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="G17" s="1">
+        <v>0.0121968080958089</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0010497749197466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0.00704777837243475</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>0.0107412078261474</v>
       </c>
       <c r="F18" s="1">
         <v>49.4521269892461</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
+      <c r="G18" s="1">
+        <v>0.0473425616099911</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.00231946928670253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -1402,13 +1512,19 @@
       <c r="F19" s="1">
         <v>15.8706323731892</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
+      <c r="G19" s="1">
+        <v>0.0750811682191575</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.00231946928670253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="3">
         <v>0.0223042743722389</v>
       </c>
       <c r="D20" s="8">
@@ -1417,42 +1533,60 @@
       <c r="F20" s="1">
         <v>1254.99943917627</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="G20" s="1">
+        <v>0.186718530367884</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.00231946928670253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
         <f>AVERAGE(C18:C20)</f>
         <v>0.0135485468794728</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.0107412078261474</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="G21" s="1">
+        <v>0.103047420065678</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.00231946928670253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>0.00774823303572936</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>0.0109940630959261</v>
       </c>
       <c r="F22" s="1">
         <v>0.104986426653486</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
+      <c r="G22" s="1">
+        <v>14.9693710960608</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0595998381613937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -1465,13 +1599,19 @@
       <c r="F23" s="1">
         <v>0.0213181794601587</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
+      <c r="G23" s="1">
+        <v>3.63162644028899</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0595998381613937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4"/>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="3">
         <v>0.0675764995629449</v>
       </c>
       <c r="D24" s="8">
@@ -1480,39 +1620,57 @@
       <c r="F24" s="1">
         <v>0.052797375044146</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="G24" s="1">
+        <v>0.590677382059911</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0595998381613937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11">
         <f>AVERAGE(C22:C24)</f>
         <v>0.0407443752638192</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>0.0109940630959261</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="G25" s="1">
+        <v>6.39722497280322</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0595998381613937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>0.0379972223546437</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>0.0107526322058181</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
+      <c r="G26" s="1">
+        <v>1.8184426181604</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.220173800044028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4"/>
       <c r="B27" s="2">
         <v>2</v>
       </c>
@@ -1522,9 +1680,15 @@
       <c r="D27" s="8">
         <v>0.0107526322058181</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
+      <c r="G27" s="1">
+        <v>0.297688674251427</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.220173800044028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4"/>
       <c r="B28" s="2">
         <v>3</v>
       </c>
@@ -1534,36 +1698,54 @@
       <c r="D28" s="8">
         <v>0.0107526322058181</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="G28" s="1">
+        <v>0.164933055623104</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.220173800044028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
         <f>AVERAGE(C26:C28)</f>
         <v>0.0181484258738359</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>0.0107526322058181</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="G29" s="1">
+        <v>0.760354782678309</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.220173800044028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>0.0502643842041866</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>0.0102146815634899</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
+      <c r="G30" s="1">
+        <v>0.014090432856556</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0435628681956003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
       <c r="B31" s="2">
         <v>2</v>
       </c>
@@ -1573,9 +1755,15 @@
       <c r="D31" s="8">
         <v>0.0102146815634899</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
+      <c r="G31" s="1">
+        <v>0.019612924797085</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0435628681956003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -1585,36 +1773,54 @@
       <c r="D32" s="8">
         <v>0.0102146815634899</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="G32" s="1">
+        <v>0.0426653861259385</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0435628681956003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
         <f>AVERAGE(C30:C32)</f>
         <v>0.0430260934243224</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>0.0102146815634899</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="G33" s="1">
+        <v>0.0254562479265265</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0435628681956003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <v>0.0215941300436385</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>0.0101627396745062</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
+      <c r="G34" s="1">
+        <v>0.128057939949339</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.00469563208040684</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4"/>
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -1624,9 +1830,15 @@
       <c r="D35" s="8">
         <v>0.0101627396745062</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
+      <c r="G35" s="1">
+        <v>0.0163110564938503</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.00469563208040684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4"/>
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -1636,18 +1848,323 @@
       <c r="D36" s="8">
         <v>0.0101627396745062</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="G36" s="1">
+        <v>1.38299463439814</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.00469563208040684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11">
         <f>AVERAGE(C34:C36)</f>
         <v>0.0156411526531306</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>0.0101627396745062</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.509121210280443</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.00469563208040684</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45" s="1">
+        <v>0.00616632143169286</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.00621232206368554</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8">
+      <c r="G46" s="1">
+        <v>0.0320698693349027</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.00621232206368554</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8">
+      <c r="G47" s="1">
+        <v>0.00630566587163335</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.00621232206368554</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8">
+      <c r="G48" s="1">
+        <v>0.0148472855460763</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.00621232206368554</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8">
+      <c r="G49" s="1">
+        <v>0.0184837453356721</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.00874983069724179</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="G50" s="1">
+        <v>0.00812720543957282</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.00874983069724179</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
+      <c r="G51" s="1">
+        <v>0.0072233870899833</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.00874983069724179</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
+      <c r="G52" s="1">
+        <v>0.0112781126217427</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.00874983069724179</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
+      <c r="G53" s="1">
+        <v>0.146115000020784</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.00997298689218856</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
+      <c r="G54" s="1">
+        <v>0.00760369797350024</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.00997298689218856</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8">
+      <c r="G55" s="1">
+        <v>0.0102310340241229</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.00997298689218856</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8">
+      <c r="G56" s="1">
+        <v>0.0546499106728025</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.00997298689218856</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8">
+      <c r="G57" s="1">
+        <v>0.0519344786900128</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.0106685809895454</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
+      <c r="G58" s="1">
+        <v>0.00790332573359407</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0106685809895454</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
+      <c r="G59" s="1">
+        <v>0.0354966279084169</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0106685809895454</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" s="1">
+        <v>0.0317781441106746</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.0106685809895454</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
+      <c r="G61" s="1">
+        <v>0.164137222225134</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.0107412078261497</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8">
+      <c r="G62" s="1">
+        <v>0.0102434433687491</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.0107412078261497</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8">
+      <c r="G63" s="1">
+        <v>0.00900439088406097</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.0107412078261497</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8">
+      <c r="G64" s="1">
+        <v>0.0611283521593149</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0107412078261497</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65" s="1">
+        <v>0.0147539717266628</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.0109940630959235</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" s="1">
+        <v>0.00963672881962569</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.0109940630959235</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" s="1">
+        <v>0.0186967544500274</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0109940630959235</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" s="1">
+        <v>0.014362484998772</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0109940630959235</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" s="1">
+        <v>0.0626259401775647</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.0107526322058224</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" s="1">
+        <v>0.230518904806578</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.0107526322058224</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71" s="1">
+        <v>0.00943452840306715</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.0107526322058224</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72" s="1">
+        <v>0.10085979112907</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.0107526322058224</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" s="1">
+        <v>0.0108092492897835</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0102146815634939</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" s="1">
+        <v>0.322836269084305</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.0102146815634939</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" s="1">
+        <v>0.0109643042646679</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0102146815634939</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76" s="1">
+        <v>0.114869940879585</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.0102146815634939</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77" s="1">
+        <v>0.119886303412529</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.0101627396745044</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="G78" s="1">
+        <v>0.010320177274723</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.0101627396745044</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="G79" s="1">
+        <v>0.10178452593554</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.0101627396745044</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="G80" s="1">
+        <v>0.0773303355409313</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.0101627396745044</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2179,8 @@
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>